--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -360,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -513,6 +513,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -560,7 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +596,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,36 +967,177 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <f>I3</f>
+        <v>1.5</v>
+      </c>
+      <c r="K2" s="8">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="8">
+        <f>I5</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="8">
+        <f>I6</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
+      <c r="I3" s="8">
+        <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f>J4</f>
+        <v>3.5</v>
+      </c>
+      <c r="L3" s="8">
+        <f>J5</f>
+        <v>4.5</v>
+      </c>
+      <c r="M3" s="8">
+        <f>J6</f>
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="8">
+        <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <f>K5</f>
+        <v>7</v>
+      </c>
+      <c r="M4" s="8">
+        <f>K6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="8">
+        <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
+        <v>7</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <f>L6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="8">
+        <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="8">
+        <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -355,12 +355,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -525,6 +525,28 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -575,7 +597,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,6 +606,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,7 +623,10 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,153 +1019,209 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="4">
         <f>I3</f>
         <v>1.5</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="4">
         <f>I4</f>
         <v>5</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="4">
         <f>I5</f>
         <v>4</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="4">
         <f>I6</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>2.5</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="4">
         <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
         <v>1.5</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="4">
         <f>J4</f>
         <v>3.5</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="4">
         <f>J5</f>
         <v>4.5</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="4">
         <f>J6</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>5</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="8">
-        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I11" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
         <v>3.5</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="4">
         <f>K5</f>
         <v>7</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="4">
         <f>K6</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>-2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
         <v>4.5</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="4">
         <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
         <v>7</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="4">
         <f>L6</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="4">
         <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
         <v>4</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="4">
         <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
         <v>5</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tsp_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Documents\GitHub\tsp_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -984,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I11" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
+        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
         <v>5</v>
       </c>
       <c r="J4" s="4">
@@ -1206,22 +1206,6 @@
       </c>
       <c r="B11" s="1">
         <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Documents\GitHub\tsp_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tsp_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -505,17 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -525,28 +517,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -597,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,25 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B13"/>
+      <selection activeCell="E15" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,10 +975,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
+        <f ca="1">RAND()*10</f>
+        <v>1.5053328495538332</v>
+      </c>
+      <c r="B2" s="5">
+        <f ca="1">RAND()*10</f>
+        <v>5.9060635283867811</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1032,180 +989,208 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>I3</f>
-        <v>1.5</v>
+        <f ca="1">I3</f>
+        <v>9.8110018778876444</v>
       </c>
       <c r="K2" s="4">
-        <f>I4</f>
-        <v>5</v>
+        <f ca="1">I4</f>
+        <v>7.4487008153521437</v>
       </c>
       <c r="L2" s="4">
-        <f>I5</f>
-        <v>4</v>
+        <f ca="1">I5</f>
+        <v>5.8956035348880675</v>
       </c>
       <c r="M2" s="4">
-        <f>I6</f>
-        <v>5</v>
+        <f ca="1">I6</f>
+        <v>3.0240511038043558</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2.5</v>
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:B12" ca="1" si="0">RAND()*10</f>
+        <v>7.593947483556132</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1836762845014368</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
-        <v>1.5</v>
+        <f ca="1">ABS($A$2-A3)+ABS($B$2-B3)</f>
+        <v>9.8110018778876444</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>J4</f>
-        <v>3.5</v>
+        <f ca="1">J4</f>
+        <v>5.0824734252351886</v>
       </c>
       <c r="L3" s="4">
-        <f>J5</f>
-        <v>4.5</v>
+        <f ca="1">J5</f>
+        <v>8.2618309250050217</v>
       </c>
       <c r="M3" s="4">
-        <f>J6</f>
-        <v>5.5</v>
+        <f ca="1">J6</f>
+        <v>6.7869507740832873</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>5</v>
+      <c r="A4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8717290682799614</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.988368125012796</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
-        <v>5</v>
+        <f t="shared" ref="I4:I6" ca="1" si="1">ABS($A$2-A4)+ABS($B$2-B4)</f>
+        <v>7.4487008153521437</v>
       </c>
       <c r="J4" s="4">
-        <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
-        <v>3.5</v>
+        <f ca="1">ABS($A$3-A4)+ABS($B$3-B4)</f>
+        <v>5.0824734252351886</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>K5</f>
-        <v>7</v>
+        <f ca="1">K5</f>
+        <v>13.344304350240211</v>
       </c>
       <c r="M4" s="4">
-        <f>K6</f>
-        <v>4</v>
+        <f ca="1">K6</f>
+        <v>8.9715039844930686</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>-2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
+      <c r="A5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60353384003144939</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91225900302109753</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8956035348880675</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
-        <v>4.5</v>
+        <f t="shared" ref="J5:J6" ca="1" si="2">ABS($A$3-A5)+ABS($B$3-B5)</f>
+        <v>8.2618309250050217</v>
       </c>
       <c r="K5" s="4">
-        <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
-        <v>7</v>
+        <f ca="1">ABS($A$4-A5)+ABS($B$4-B5)</f>
+        <v>13.344304350240211</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>L6</f>
-        <v>5</v>
+        <f ca="1">L6</f>
+        <v>4.3728003657471408</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10">
-        <v>6</v>
+      <c r="A6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2559568168855479</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.63263639191414</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0240511038043558</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7869507740832873</v>
       </c>
       <c r="K6" s="4">
-        <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
-        <v>4</v>
+        <f ca="1">ABS($A$4-A6)+ABS($B$4-B6)</f>
+        <v>8.9715039844930686</v>
       </c>
       <c r="L6" s="4">
-        <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
-        <v>5</v>
+        <f ca="1">ABS($A$5-A6)+ABS($B$5-B6)</f>
+        <v>4.3728003657471408</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
+      <c r="A7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1497679972605352</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9830324719553496</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
+      <c r="A8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2281641927689693</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6778061771105079</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>-3.5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-1</v>
+      <c r="A9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7239946045148358</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7677115191816846</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
+      <c r="A10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2076158293357739</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4461616098334398</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-2</v>
+      <c r="A11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4044347341002261</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7889723188370006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0888494444379297</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1285753720621727</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tsp_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Documents\GitHub\tsp_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -508,6 +505,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -517,6 +525,28 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -567,7 +597,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,10 +608,25 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E14:E15"/>
+      <selection activeCell="B12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,12 +1020,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <f ca="1">RAND()*10</f>
-        <v>1.5053328495538332</v>
-      </c>
-      <c r="B2" s="5">
-        <f ca="1">RAND()*10</f>
-        <v>5.9060635283867811</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -989,208 +1032,180 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f ca="1">I3</f>
-        <v>9.8110018778876444</v>
+        <f>I3</f>
+        <v>1.5</v>
       </c>
       <c r="K2" s="4">
-        <f ca="1">I4</f>
-        <v>7.4487008153521437</v>
+        <f>I4</f>
+        <v>5</v>
       </c>
       <c r="L2" s="4">
-        <f ca="1">I5</f>
-        <v>5.8956035348880675</v>
+        <f>I5</f>
+        <v>4</v>
       </c>
       <c r="M2" s="4">
-        <f ca="1">I6</f>
-        <v>3.0240511038043558</v>
+        <f>I6</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:B12" ca="1" si="0">RAND()*10</f>
-        <v>7.593947483556132</v>
-      </c>
-      <c r="B3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1836762845014368</v>
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.5</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f ca="1">ABS($A$2-A3)+ABS($B$2-B3)</f>
-        <v>9.8110018778876444</v>
+        <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
+        <v>1.5</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f ca="1">J4</f>
-        <v>5.0824734252351886</v>
+        <f>J4</f>
+        <v>3.5</v>
       </c>
       <c r="L3" s="4">
-        <f ca="1">J5</f>
-        <v>8.2618309250050217</v>
+        <f>J5</f>
+        <v>4.5</v>
       </c>
       <c r="M3" s="4">
-        <f ca="1">J6</f>
-        <v>6.7869507740832873</v>
+        <f>J6</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8717290682799614</v>
-      </c>
-      <c r="B4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.988368125012796</v>
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I6" ca="1" si="1">ABS($A$2-A4)+ABS($B$2-B4)</f>
-        <v>7.4487008153521437</v>
+        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
+        <v>5</v>
       </c>
       <c r="J4" s="4">
-        <f ca="1">ABS($A$3-A4)+ABS($B$3-B4)</f>
-        <v>5.0824734252351886</v>
+        <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
+        <v>3.5</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f ca="1">K5</f>
-        <v>13.344304350240211</v>
+        <f>K5</f>
+        <v>7</v>
       </c>
       <c r="M4" s="4">
-        <f ca="1">K6</f>
-        <v>8.9715039844930686</v>
+        <f>K6</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60353384003144939</v>
-      </c>
-      <c r="B5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91225900302109753</v>
+      <c r="A5" s="7">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8956035348880675</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J6" ca="1" si="2">ABS($A$3-A5)+ABS($B$3-B5)</f>
-        <v>8.2618309250050217</v>
+        <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
+        <v>4.5</v>
       </c>
       <c r="K5" s="4">
-        <f ca="1">ABS($A$4-A5)+ABS($B$4-B5)</f>
-        <v>13.344304350240211</v>
+        <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
+        <v>7</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f ca="1">L6</f>
-        <v>4.3728003657471408</v>
+        <f>L6</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2559568168855479</v>
-      </c>
-      <c r="B6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.63263639191414</v>
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0240511038043558</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7869507740832873</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="K6" s="4">
-        <f ca="1">ABS($A$4-A6)+ABS($B$4-B6)</f>
-        <v>8.9715039844930686</v>
+        <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
+        <v>4</v>
       </c>
       <c r="L6" s="4">
-        <f ca="1">ABS($A$5-A6)+ABS($B$5-B6)</f>
-        <v>4.3728003657471408</v>
+        <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
+        <v>5</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1497679972605352</v>
-      </c>
-      <c r="B7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9830324719553496</v>
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2281641927689693</v>
-      </c>
-      <c r="B8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6778061771105079</v>
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7239946045148358</v>
-      </c>
-      <c r="B9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7677115191816846</v>
+      <c r="A9" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2076158293357739</v>
-      </c>
-      <c r="B10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4461616098334398</v>
+      <c r="A10" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4044347341002261</v>
-      </c>
-      <c r="B11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7889723188370006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.0888494444379297</v>
-      </c>
-      <c r="B12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1285753720621727</v>
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Documents\GitHub\tsp_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tsp_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -360,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -505,17 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -525,28 +514,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -597,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,25 +575,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,10 +972,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(-10,15)</f>
+        <v>-3</v>
+      </c>
+      <c r="B2" s="5">
+        <f ca="1">RANDBETWEEN(-10,15)</f>
+        <v>-9</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1032,180 +986,348 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>I3</f>
-        <v>1.5</v>
+        <f ca="1">I3</f>
+        <v>23</v>
       </c>
       <c r="K2" s="4">
-        <f>I4</f>
-        <v>5</v>
+        <f ca="1">I4</f>
+        <v>4</v>
       </c>
       <c r="L2" s="4">
-        <f>I5</f>
-        <v>4</v>
+        <f ca="1">I5</f>
+        <v>29</v>
       </c>
       <c r="M2" s="4">
-        <f>I6</f>
-        <v>5</v>
+        <f ca="1">I6</f>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2.5</v>
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:B26" ca="1" si="0">RANDBETWEEN(-10,15)</f>
+        <v>-7</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
-        <v>1.5</v>
+        <f ca="1">ABS($A$2-A3)+ABS($B$2-B3)</f>
+        <v>23</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>J4</f>
-        <v>3.5</v>
+        <f ca="1">J4</f>
+        <v>21</v>
       </c>
       <c r="L3" s="4">
-        <f>J5</f>
-        <v>4.5</v>
+        <f ca="1">J5</f>
+        <v>6</v>
       </c>
       <c r="M3" s="4">
-        <f>J6</f>
-        <v>5.5</v>
+        <f ca="1">J6</f>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>5</v>
+      <c r="A4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
-        <v>5</v>
+        <f t="shared" ref="I4:I6" ca="1" si="1">ABS($A$2-A4)+ABS($B$2-B4)</f>
+        <v>4</v>
       </c>
       <c r="J4" s="4">
-        <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
-        <v>3.5</v>
+        <f ca="1">ABS($A$3-A4)+ABS($B$3-B4)</f>
+        <v>21</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>K5</f>
-        <v>7</v>
+        <f ca="1">K5</f>
+        <v>27</v>
       </c>
       <c r="M4" s="4">
-        <f>K6</f>
-        <v>4</v>
+        <f ca="1">K6</f>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>-2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
+      <c r="A5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
-        <v>4.5</v>
+        <f t="shared" ref="J5:J6" ca="1" si="2">ABS($A$3-A5)+ABS($B$3-B5)</f>
+        <v>6</v>
       </c>
       <c r="K5" s="4">
-        <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
-        <v>7</v>
+        <f ca="1">ABS($A$4-A5)+ABS($B$4-B5)</f>
+        <v>27</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>L6</f>
-        <v>5</v>
+        <f ca="1">L6</f>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10">
-        <v>6</v>
+      <c r="A6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
       </c>
       <c r="K6" s="4">
-        <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
-        <v>4</v>
+        <f ca="1">ABS($A$4-A6)+ABS($B$4-B6)</f>
+        <v>40</v>
       </c>
       <c r="L6" s="4">
-        <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
-        <v>5</v>
+        <f ca="1">ABS($A$5-A6)+ABS($B$5-B6)</f>
+        <v>23</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>-3.5</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="B21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="1">
-        <v>-2</v>
+      <c r="B24" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -936,15 +936,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -972,12 +974,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <f ca="1">RANDBETWEEN(-10,15)</f>
-        <v>-3</v>
+        <v>20833.333299999998</v>
       </c>
       <c r="B2" s="5">
-        <f ca="1">RANDBETWEEN(-10,15)</f>
-        <v>-9</v>
+        <v>17100</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -986,145 +986,137 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f ca="1">I3</f>
-        <v>23</v>
+        <f>I3</f>
+        <v>100</v>
       </c>
       <c r="K2" s="4">
-        <f ca="1">I4</f>
-        <v>4</v>
+        <f>I4</f>
+        <v>4550.0000000000018</v>
       </c>
       <c r="L2" s="4">
-        <f ca="1">I5</f>
-        <v>29</v>
+        <f>I5</f>
+        <v>3716.6667000000016</v>
       </c>
       <c r="M2" s="4">
-        <f ca="1">I6</f>
-        <v>36</v>
+        <f>I6</f>
+        <v>2900.0000000000018</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:B26" ca="1" si="0">RANDBETWEEN(-10,15)</f>
-        <v>-7</v>
+        <v>20900</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>17066.666700000002</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f ca="1">ABS($A$2-A3)+ABS($B$2-B3)</f>
-        <v>23</v>
+        <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
+        <v>100</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f ca="1">J4</f>
-        <v>21</v>
+        <f>J4</f>
+        <v>4450.0000000000018</v>
       </c>
       <c r="L3" s="4">
-        <f ca="1">J5</f>
-        <v>6</v>
+        <f>J5</f>
+        <v>3616.6667000000016</v>
       </c>
       <c r="M3" s="4">
-        <f ca="1">J6</f>
-        <v>21</v>
+        <f>J6</f>
+        <v>2800.0000000000018</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>21300</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>13016.6667</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I6" ca="1" si="1">ABS($A$2-A4)+ABS($B$2-B4)</f>
-        <v>4</v>
+        <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
+        <v>4550.0000000000018</v>
       </c>
       <c r="J4" s="4">
-        <f ca="1">ABS($A$3-A4)+ABS($B$3-B4)</f>
-        <v>21</v>
+        <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
+        <v>4450.0000000000018</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f ca="1">K5</f>
-        <v>27</v>
+        <f>K5</f>
+        <v>1433.3333000000002</v>
       </c>
       <c r="M4" s="4">
-        <f ca="1">K6</f>
-        <v>40</v>
+        <f>K6</f>
+        <v>2250</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>21600</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14150</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>3716.6667000000016</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J6" ca="1" si="2">ABS($A$3-A5)+ABS($B$3-B5)</f>
-        <v>6</v>
+        <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
+        <v>3616.6667000000016</v>
       </c>
       <c r="K5" s="4">
-        <f ca="1">ABS($A$4-A5)+ABS($B$4-B5)</f>
-        <v>27</v>
+        <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
+        <v>1433.3333000000002</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f ca="1">L6</f>
-        <v>23</v>
+        <f>L6</f>
+        <v>816.66669999999976</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>21600</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>14966.6667</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>2900.0000000000018</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>2800.0000000000018</v>
       </c>
       <c r="K6" s="4">
-        <f ca="1">ABS($A$4-A6)+ABS($B$4-B6)</f>
-        <v>40</v>
+        <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
+        <v>2250</v>
       </c>
       <c r="L6" s="4">
-        <f ca="1">ABS($A$5-A6)+ABS($B$5-B6)</f>
-        <v>23</v>
+        <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
+        <v>816.66669999999976</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1132,205 +1124,204 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>21600</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>22183.333299999998</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>13133.3333</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>22583.333299999998</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>22683.333299999998</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>12716.6667</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>23616.666700000002</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>15866.6667</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>23700</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>15933.3333</v>
+      </c>
+      <c r="I12" s="5">
+        <v>27462.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>12992.2222</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>23883.333299999998</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14533.3333</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>24166.666700000002</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>25149.166700000002</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12365.8333</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>26133.333299999998</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>26150</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>26283.333299999998</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12766.6667</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>26433.333299999998</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>13433.3333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>26550</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>26733.333299999998</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11683.3333</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>27026.111099999998</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>13051.9444</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>27096.111099999998</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>13415.8333</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>27153.611099999998</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>13203.3333</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>27166.666700000002</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>9833.3333000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>27233.333299999998</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>27233.333299999998</v>
+      </c>
+      <c r="B27" s="5">
+        <v>11783.3333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27266.666700000002</v>
+      </c>
+      <c r="B28" s="5">
+        <v>10383.3333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27433.333299999998</v>
+      </c>
+      <c r="B29" s="5">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>27462.5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>12992.2222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tsp_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507C8EF-356E-4EE0-BF26-D3C9EF6DD8E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>y_co</t>
   </si>
   <si>
     <t>x_co</t>
+  </si>
+  <si>
+    <t>optimal =</t>
   </si>
 </sst>
 </file>
@@ -564,7 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,6 +583,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +981,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>20833.333299999998</v>
+        <v>11003.6111</v>
       </c>
       <c r="B2" s="5">
-        <v>17100</v>
+        <v>42102.5</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -987,136 +994,142 @@
       </c>
       <c r="J2" s="4">
         <f>I3</f>
-        <v>100</v>
+        <v>376.3888999999981</v>
       </c>
       <c r="K2" s="4">
         <f>I4</f>
-        <v>4550.0000000000018</v>
+        <v>913.05549999999857</v>
       </c>
       <c r="L2" s="4">
         <f>I5</f>
-        <v>3716.6667000000016</v>
+        <v>762.22220000000016</v>
       </c>
       <c r="M2" s="4">
         <f>I6</f>
-        <v>2900.0000000000018</v>
+        <v>1010.5554999999986</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>20900</v>
+        <v>11108.6111</v>
       </c>
       <c r="B3" s="5">
-        <v>17066.666700000002</v>
+        <v>42373.888899999998</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6656</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="4">
         <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
-        <v>100</v>
+        <v>376.3888999999981</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
         <f>J4</f>
-        <v>4450.0000000000018</v>
+        <v>536.66660000000047</v>
       </c>
       <c r="L3" s="4">
         <f>J5</f>
-        <v>3616.6667000000016</v>
+        <v>385.83330000000205</v>
       </c>
       <c r="M3" s="4">
         <f>J6</f>
-        <v>2800.0000000000018</v>
+        <v>634.16660000000047</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>21300</v>
+        <v>11133.3333</v>
       </c>
       <c r="B4" s="5">
-        <v>13016.6667</v>
+        <v>42885.833299999998</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
-        <v>4550.0000000000018</v>
+        <v>913.05549999999857</v>
       </c>
       <c r="J4" s="4">
         <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
-        <v>4450.0000000000018</v>
+        <v>536.66660000000047</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
         <f>K5</f>
-        <v>1433.3333000000002</v>
+        <v>195.83329999999842</v>
       </c>
       <c r="M4" s="4">
         <f>K6</f>
-        <v>2250</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>21600</v>
+        <v>11155.8333</v>
       </c>
       <c r="B5" s="5">
-        <v>14150</v>
+        <v>42712.5</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>3716.6667000000016</v>
+        <v>762.22220000000016</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
-        <v>3616.6667000000016</v>
+        <v>385.83330000000205</v>
       </c>
       <c r="K5" s="4">
         <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
-        <v>1433.3333000000002</v>
+        <v>195.83329999999842</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
         <f>L6</f>
-        <v>816.66669999999976</v>
+        <v>248.33329999999842</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>21600</v>
+        <v>11183.3333</v>
       </c>
       <c r="B6" s="5">
-        <v>14966.6667</v>
+        <v>42933.333299999998</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>2900.0000000000018</v>
+        <v>1010.5554999999986</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>2800.0000000000018</v>
+        <v>634.16660000000047</v>
       </c>
       <c r="K6" s="4">
         <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
-        <v>2250</v>
+        <v>97.5</v>
       </c>
       <c r="L6" s="4">
         <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
-        <v>816.66669999999976</v>
+        <v>248.33329999999842</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1124,50 +1137,50 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>21600</v>
+        <v>11297.5</v>
       </c>
       <c r="B7" s="5">
-        <v>16500</v>
+        <v>42853.333299999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>22183.333299999998</v>
+        <v>11310.2778</v>
       </c>
       <c r="B8" s="5">
-        <v>13133.3333</v>
+        <v>42929.4444</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>22583.333299999998</v>
+        <v>11416.6667</v>
       </c>
       <c r="B9" s="5">
-        <v>14300</v>
+        <v>42983.333299999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>22683.333299999998</v>
+        <v>11423.8889</v>
       </c>
       <c r="B10" s="5">
-        <v>12716.6667</v>
+        <v>43000.277800000003</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>23616.666700000002</v>
+        <v>11438.3333</v>
       </c>
       <c r="B11" s="5">
-        <v>15866.6667</v>
+        <v>42057.222199999997</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>23700</v>
+        <v>11461.1111</v>
       </c>
       <c r="B12" s="5">
-        <v>15933.3333</v>
+        <v>43252.777800000003</v>
       </c>
       <c r="I12" s="5">
         <v>27462.5</v>
@@ -1178,146 +1191,218 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>23883.333299999998</v>
+        <v>11485.5556</v>
       </c>
       <c r="B13" s="5">
-        <v>14533.3333</v>
+        <v>43187.222199999997</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>24166.666700000002</v>
+        <v>11503.0556</v>
       </c>
       <c r="B14" s="5">
-        <v>13250</v>
+        <v>42855.277800000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>25149.166700000002</v>
+        <v>11511.3889</v>
       </c>
       <c r="B15" s="5">
-        <v>12365.8333</v>
+        <v>42106.388899999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>26133.333299999998</v>
+        <v>11522.2222</v>
       </c>
       <c r="B16" s="5">
-        <v>14500</v>
+        <v>42841.9444</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>26150</v>
+        <v>11569.4444</v>
       </c>
       <c r="B17" s="5">
-        <v>10550</v>
+        <v>43136.666700000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>26283.333299999998</v>
+        <v>11583.3333</v>
       </c>
       <c r="B18" s="5">
-        <v>12766.6667</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>26433.333299999998</v>
+        <v>11595</v>
       </c>
       <c r="B19" s="5">
-        <v>13433.3333</v>
+        <v>43148.0556</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>26550</v>
+        <v>11600</v>
       </c>
       <c r="B20" s="5">
-        <v>13850</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>26733.333299999998</v>
+        <v>11690.5556</v>
       </c>
       <c r="B21" s="5">
-        <v>11683.3333</v>
+        <v>42686.666700000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>27026.111099999998</v>
+        <v>11715.8333</v>
       </c>
       <c r="B22" s="5">
-        <v>13051.9444</v>
+        <v>41836.111100000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>27096.111099999998</v>
+        <v>11751.1111</v>
       </c>
       <c r="B23" s="5">
-        <v>13415.8333</v>
+        <v>42814.4444</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>27153.611099999998</v>
+        <v>11770.2778</v>
       </c>
       <c r="B24" s="5">
-        <v>13203.3333</v>
+        <v>42651.9444</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>27166.666700000002</v>
+        <v>11785.2778</v>
       </c>
       <c r="B25" s="5">
-        <v>9833.3333000000002</v>
+        <v>42884.4444</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>27233.333299999998</v>
+        <v>11822.7778</v>
       </c>
       <c r="B26" s="5">
-        <v>10450</v>
+        <v>42673.611100000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>27233.333299999998</v>
+        <v>11846.9444</v>
       </c>
       <c r="B27" s="5">
-        <v>11783.3333</v>
+        <v>42660.5556</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>27266.666700000002</v>
+        <v>11963.0556</v>
       </c>
       <c r="B28" s="5">
-        <v>10383.3333</v>
+        <v>43290.5556</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>27433.333299999998</v>
+        <v>11973.0556</v>
       </c>
       <c r="B29" s="5">
-        <v>12400</v>
+        <v>43026.111100000002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>27462.5</v>
+        <v>12058.3333</v>
       </c>
       <c r="B30" s="5">
-        <v>12992.2222</v>
+        <v>42195.5556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>12149.4444</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42477.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>12286.9444</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43355.5556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>12300</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42433.333299999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>12355.8333</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43156.388899999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>12363.3333</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43189.166700000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>12372.7778</v>
+      </c>
+      <c r="B36" s="5">
+        <v>42711.388899999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>12386.6667</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43334.722199999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>12421.6667</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42895.5556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>12645</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42973.333299999998</v>
       </c>
     </row>
   </sheetData>

--- a/tsp.xlsx
+++ b/tsp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tsp_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507C8EF-356E-4EE0-BF26-D3C9EF6DD8E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94592364-C85B-4832-890C-842FC41EE21B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +981,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>11003.6111</v>
+        <v>20833.333299999998</v>
       </c>
       <c r="B2" s="5">
-        <v>42102.5</v>
+        <v>17100</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -994,27 +994,27 @@
       </c>
       <c r="J2" s="4">
         <f>I3</f>
-        <v>376.3888999999981</v>
+        <v>100</v>
       </c>
       <c r="K2" s="4">
         <f>I4</f>
-        <v>913.05549999999857</v>
+        <v>4550.0000000000018</v>
       </c>
       <c r="L2" s="4">
         <f>I5</f>
-        <v>762.22220000000016</v>
+        <v>3716.6667000000016</v>
       </c>
       <c r="M2" s="4">
         <f>I6</f>
-        <v>1010.5554999999986</v>
+        <v>2900.0000000000018</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>11108.6111</v>
+        <v>20900</v>
       </c>
       <c r="B3" s="5">
-        <v>42373.888899999998</v>
+        <v>17066.666700000002</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
@@ -1027,109 +1027,109 @@
       </c>
       <c r="I3" s="4">
         <f>ABS($A$2-A3)+ABS($B$2-B3)</f>
-        <v>376.3888999999981</v>
+        <v>100</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="4">
         <f>J4</f>
-        <v>536.66660000000047</v>
+        <v>4450.0000000000018</v>
       </c>
       <c r="L3" s="4">
         <f>J5</f>
-        <v>385.83330000000205</v>
+        <v>3616.6667000000016</v>
       </c>
       <c r="M3" s="4">
         <f>J6</f>
-        <v>634.16660000000047</v>
+        <v>2800.0000000000018</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>11133.3333</v>
+        <v>21300</v>
       </c>
       <c r="B4" s="5">
-        <v>42885.833299999998</v>
+        <v>13016.6667</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I6" si="0">ABS($A$2-A4)+ABS($B$2-B4)</f>
-        <v>913.05549999999857</v>
+        <v>4550.0000000000018</v>
       </c>
       <c r="J4" s="4">
         <f>ABS($A$3-A4)+ABS($B$3-B4)</f>
-        <v>536.66660000000047</v>
+        <v>4450.0000000000018</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
         <f>K5</f>
-        <v>195.83329999999842</v>
+        <v>1433.3333000000002</v>
       </c>
       <c r="M4" s="4">
         <f>K6</f>
-        <v>97.5</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>11155.8333</v>
+        <v>21600</v>
       </c>
       <c r="B5" s="5">
-        <v>42712.5</v>
+        <v>14150</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>762.22220000000016</v>
+        <v>3716.6667000000016</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J6" si="1">ABS($A$3-A5)+ABS($B$3-B5)</f>
-        <v>385.83330000000205</v>
+        <v>3616.6667000000016</v>
       </c>
       <c r="K5" s="4">
         <f>ABS($A$4-A5)+ABS($B$4-B5)</f>
-        <v>195.83329999999842</v>
+        <v>1433.3333000000002</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
         <f>L6</f>
-        <v>248.33329999999842</v>
+        <v>816.66669999999976</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>11183.3333</v>
+        <v>21600</v>
       </c>
       <c r="B6" s="5">
-        <v>42933.333299999998</v>
+        <v>14966.6667</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>1010.5554999999986</v>
+        <v>2900.0000000000018</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>634.16660000000047</v>
+        <v>2800.0000000000018</v>
       </c>
       <c r="K6" s="4">
         <f>ABS($A$4-A6)+ABS($B$4-B6)</f>
-        <v>97.5</v>
+        <v>2250</v>
       </c>
       <c r="L6" s="4">
         <f>ABS($A$5-A6)+ABS($B$5-B6)</f>
-        <v>248.33329999999842</v>
+        <v>816.66669999999976</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1137,50 +1137,50 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>11297.5</v>
+        <v>21600</v>
       </c>
       <c r="B7" s="5">
-        <v>42853.333299999998</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>11310.2778</v>
+        <v>22183.333299999998</v>
       </c>
       <c r="B8" s="5">
-        <v>42929.4444</v>
+        <v>13133.3333</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>11416.6667</v>
+        <v>22583.333299999998</v>
       </c>
       <c r="B9" s="5">
-        <v>42983.333299999998</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>11423.8889</v>
+        <v>22683.333299999998</v>
       </c>
       <c r="B10" s="5">
-        <v>43000.277800000003</v>
+        <v>12716.6667</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>11438.3333</v>
+        <v>23616.666700000002</v>
       </c>
       <c r="B11" s="5">
-        <v>42057.222199999997</v>
+        <v>15866.6667</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11461.1111</v>
+        <v>23700</v>
       </c>
       <c r="B12" s="5">
-        <v>43252.777800000003</v>
+        <v>15933.3333</v>
       </c>
       <c r="I12" s="5">
         <v>27462.5</v>
@@ -1191,218 +1191,146 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>11485.5556</v>
+        <v>23883.333299999998</v>
       </c>
       <c r="B13" s="5">
-        <v>43187.222199999997</v>
+        <v>14533.3333</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>11503.0556</v>
+        <v>24166.666700000002</v>
       </c>
       <c r="B14" s="5">
-        <v>42855.277800000003</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>11511.3889</v>
+        <v>25149.166700000002</v>
       </c>
       <c r="B15" s="5">
-        <v>42106.388899999998</v>
+        <v>12365.8333</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>11522.2222</v>
+        <v>26133.333299999998</v>
       </c>
       <c r="B16" s="5">
-        <v>42841.9444</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>11569.4444</v>
+        <v>26150</v>
       </c>
       <c r="B17" s="5">
-        <v>43136.666700000002</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>11583.3333</v>
+        <v>26283.333299999998</v>
       </c>
       <c r="B18" s="5">
-        <v>43150</v>
+        <v>12766.6667</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>11595</v>
+        <v>26433.333299999998</v>
       </c>
       <c r="B19" s="5">
-        <v>43148.0556</v>
+        <v>13433.3333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>11600</v>
+        <v>26550</v>
       </c>
       <c r="B20" s="5">
-        <v>43150</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>11690.5556</v>
+        <v>26733.333299999998</v>
       </c>
       <c r="B21" s="5">
-        <v>42686.666700000002</v>
+        <v>11683.3333</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>11715.8333</v>
+        <v>27026.111099999998</v>
       </c>
       <c r="B22" s="5">
-        <v>41836.111100000002</v>
+        <v>13051.9444</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>11751.1111</v>
+        <v>27096.111099999998</v>
       </c>
       <c r="B23" s="5">
-        <v>42814.4444</v>
+        <v>13415.8333</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>11770.2778</v>
+        <v>27153.611099999998</v>
       </c>
       <c r="B24" s="5">
-        <v>42651.9444</v>
+        <v>13203.3333</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>11785.2778</v>
+        <v>27166.666700000002</v>
       </c>
       <c r="B25" s="5">
-        <v>42884.4444</v>
+        <v>9833.3333000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>11822.7778</v>
+        <v>27233.333299999998</v>
       </c>
       <c r="B26" s="5">
-        <v>42673.611100000002</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>11846.9444</v>
+        <v>27233.333299999998</v>
       </c>
       <c r="B27" s="5">
-        <v>42660.5556</v>
+        <v>11783.3333</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>11963.0556</v>
+        <v>27266.666700000002</v>
       </c>
       <c r="B28" s="5">
-        <v>43290.5556</v>
+        <v>10383.3333</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>11973.0556</v>
+        <v>27433.333299999998</v>
       </c>
       <c r="B29" s="5">
-        <v>43026.111100000002</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>12058.3333</v>
+        <v>27462.5</v>
       </c>
       <c r="B30" s="5">
-        <v>42195.5556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>12149.4444</v>
-      </c>
-      <c r="B31" s="5">
-        <v>42477.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>12286.9444</v>
-      </c>
-      <c r="B32" s="5">
-        <v>43355.5556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>12300</v>
-      </c>
-      <c r="B33" s="5">
-        <v>42433.333299999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>12355.8333</v>
-      </c>
-      <c r="B34" s="5">
-        <v>43156.388899999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>12363.3333</v>
-      </c>
-      <c r="B35" s="5">
-        <v>43189.166700000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>12372.7778</v>
-      </c>
-      <c r="B36" s="5">
-        <v>42711.388899999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>12386.6667</v>
-      </c>
-      <c r="B37" s="5">
-        <v>43334.722199999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>12421.6667</v>
-      </c>
-      <c r="B38" s="5">
-        <v>42895.5556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>12645</v>
-      </c>
-      <c r="B39" s="5">
-        <v>42973.333299999998</v>
+        <v>12992.2222</v>
       </c>
     </row>
   </sheetData>
